--- a/AAII_Financials/Quarterly/FERGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FERGY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="92">
   <si>
     <t>FERGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,142 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5167000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10966000</v>
+      </c>
+      <c r="F8" s="3">
         <v>5208000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11163000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5274000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>10847000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5554000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10725000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5080000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>10027000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5191000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>9902000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>4610000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>9382000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4369000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5754000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,46 +808,52 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
+        <v>7722000</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
         <v>7897000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
         <v>7653000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3">
         <v>7605000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3">
         <v>7084000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3">
         <v>7047000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3">
         <v>6651000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3">
         <v>9564000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,46 +861,52 @@
         <v>5</v>
       </c>
       <c r="E10" s="3">
+        <v>3244000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
         <v>3266000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3">
         <v>3194000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3">
         <v>3120000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3">
         <v>2943000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3">
         <v>2855000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2731000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3">
         <v>-3810000</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +924,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,8 +973,14 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -992,8 +1026,14 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1001,46 +1041,52 @@
         <v>5</v>
       </c>
       <c r="E14" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>103000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>-3000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>158000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3">
         <v>46000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
         <v>-321000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" s="3">
         <v>103000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,46 +1094,52 @@
         <v>5</v>
       </c>
       <c r="E15" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
         <v>66000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>44000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="3">
         <v>35000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M15" s="3">
         <v>30000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
         <v>37000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
         <v>44000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1102,8 +1154,10 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1111,46 +1165,52 @@
         <v>5</v>
       </c>
       <c r="E17" s="3">
+        <v>10255000</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3">
         <v>10479000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3">
         <v>10135000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
         <v>10109000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
         <v>9405000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O17" s="3">
         <v>9009000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" s="3">
         <v>8797000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="3">
         <v>5430000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1158,46 +1218,52 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
+        <v>711000</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3">
         <v>684000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
         <v>712000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>616000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>622000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>893000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>585000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,8 +1281,10 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1224,13 +1292,13 @@
         <v>5</v>
       </c>
       <c r="E20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3">
         <v>15000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
-        <v>10000</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
@@ -1242,28 +1310,34 @@
         <v>5</v>
       </c>
       <c r="K20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>5000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>7000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1271,46 +1345,52 @@
         <v>5</v>
       </c>
       <c r="E21" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="3">
         <v>854000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
         <v>855000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>757000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>741000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>1040000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>871000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1318,46 +1398,52 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
+        <v>77000</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="3">
         <v>54000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="3">
         <v>43000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="3">
         <v>37000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M22" s="3">
         <v>29000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O22" s="3">
         <v>33000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="3">
         <v>28000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1365,46 +1451,52 @@
         <v>5</v>
       </c>
       <c r="E23" s="3">
+        <v>640000</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3">
         <v>645000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3">
         <v>679000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3">
         <v>589000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
         <v>598000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O23" s="3">
         <v>867000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q23" s="3">
         <v>556000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S23" s="3">
         <v>308000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1412,46 +1504,52 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
+        <v>173000</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="3">
         <v>124000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
         <v>139000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="3">
         <v>189000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M24" s="3">
         <v>165000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="3">
         <v>214000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q24" s="3">
         <v>156000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S24" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1497,8 +1595,14 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1506,46 +1610,52 @@
         <v>5</v>
       </c>
       <c r="E26" s="3">
+        <v>467000</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3">
         <v>521000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
         <v>540000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K26" s="3">
         <v>400000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
         <v>433000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O26" s="3">
         <v>653000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="3">
         <v>400000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S26" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1553,46 +1663,52 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>467000</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
         <v>521000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3">
         <v>540000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K27" s="3">
         <v>400000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
         <v>433000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O27" s="3">
         <v>653000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="3">
         <v>400000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S27" s="3">
         <v>209000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,8 +1754,14 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1647,46 +1769,52 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
         <v>1000</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3">
         <v>46000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
         <v>409000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>25000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-117000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-121000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1732,8 +1860,14 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1779,8 +1913,14 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1788,13 +1928,13 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3">
         <v>-15000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-10000</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
@@ -1806,28 +1946,34 @@
         <v>5</v>
       </c>
       <c r="K32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>-5000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>-7000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1835,46 +1981,52 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
+        <v>467000</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3">
         <v>522000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3">
         <v>586000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="3">
         <v>809000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
         <v>458000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O33" s="3">
         <v>536000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q33" s="3">
         <v>279000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1920,8 +2072,14 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1929,98 +2087,110 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
+        <v>467000</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3">
         <v>522000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3">
         <v>586000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K35" s="3">
         <v>809000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
         <v>458000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O35" s="3">
         <v>536000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q35" s="3">
         <v>279000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2038,8 +2208,10 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2057,8 +2229,10 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2066,46 +2240,52 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
+        <v>775000</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="3">
         <v>1133000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41" s="3">
         <v>699000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K41" s="3">
         <v>833000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>2308000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>2525000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>1089000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>940000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2118,8 +2298,8 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+      <c r="G42" s="3">
+        <v>9000</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
@@ -2130,11 +2310,11 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2151,8 +2331,14 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2160,46 +2346,52 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
+        <v>2984000</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
         <v>3219000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I43" s="3">
         <v>2982000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K43" s="3">
         <v>3104000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M43" s="3">
         <v>2781000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O43" s="3">
         <v>2769000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2805000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S43" s="3">
         <v>2207000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2207,46 +2399,52 @@
         <v>5</v>
       </c>
       <c r="E44" s="3">
+        <v>2970000</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" s="3">
         <v>2821000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="3">
         <v>2915000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K44" s="3">
         <v>2516000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M44" s="3">
         <v>2590000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O44" s="3">
         <v>2399000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q44" s="3">
         <v>2723000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S44" s="3">
         <v>2017000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,25 +2452,25 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="3">
         <v>12000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K45" s="3">
-        <v>7000</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
@@ -2284,16 +2482,22 @@
         <v>5</v>
       </c>
       <c r="O45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S45" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2301,46 +2505,52 @@
         <v>5</v>
       </c>
       <c r="E46" s="3">
+        <v>6760000</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="3">
         <v>7194000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I46" s="3">
         <v>6599000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K46" s="3">
         <v>6453000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M46" s="3">
         <v>7686000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O46" s="3">
         <v>7700000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q46" s="3">
         <v>6630000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S46" s="3">
         <v>5175000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2348,7 +2558,7 @@
         <v>5</v>
       </c>
       <c r="E47" s="3">
-        <v>411000</v>
+        <v>419000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>5</v>
@@ -2360,34 +2570,40 @@
         <v>5</v>
       </c>
       <c r="I47" s="3">
+        <v>411000</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K47" s="3">
         <v>403000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M47" s="3">
         <v>536000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O47" s="3">
         <v>478000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="3">
         <v>326000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2395,46 +2611,52 @@
         <v>5</v>
       </c>
       <c r="E48" s="3">
+        <v>2614000</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
         <v>1349000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
         <v>1316000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>1086000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1122000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1068000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1867000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1434000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2442,46 +2664,52 @@
         <v>5</v>
       </c>
       <c r="E49" s="3">
+        <v>2142000</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3">
         <v>2079000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3">
         <v>2072000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K49" s="3">
         <v>1716000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>1513000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>1653000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>1729000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>1104000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2527,8 +2755,14 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2574,8 +2808,14 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2583,7 +2823,7 @@
         <v>5</v>
       </c>
       <c r="E52" s="3">
-        <v>353000</v>
+        <v>648000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -2595,34 +2835,40 @@
         <v>5</v>
       </c>
       <c r="I52" s="3">
+        <v>353000</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>491000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1819000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1898000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>356000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2668,8 +2914,14 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2677,46 +2929,52 @@
         <v>5</v>
       </c>
       <c r="E54" s="3">
+        <v>12583000</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" s="3">
         <v>11386000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I54" s="3">
         <v>10751000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K54" s="3">
         <v>10149000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>12676000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>12557000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>10687000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>8151000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2734,8 +2992,10 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2753,8 +3013,10 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2762,46 +3024,52 @@
         <v>5</v>
       </c>
       <c r="E57" s="3">
+        <v>3120000</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
         <v>3797000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I57" s="3">
         <v>3034000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>3341000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>2847000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>3011000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>3190000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>2634000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2809,46 +3077,52 @@
         <v>5</v>
       </c>
       <c r="E58" s="3">
+        <v>987000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" s="3">
         <v>54000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
         <v>304000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>386000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>2182000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O58" s="3">
         <v>2154000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1258000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S58" s="3">
         <v>705000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2856,46 +3130,52 @@
         <v>5</v>
       </c>
       <c r="E59" s="3">
+        <v>328000</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="3">
         <v>330000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I59" s="3">
         <v>284000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>289000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>292000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>234000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>225000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>198000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2903,46 +3183,52 @@
         <v>5</v>
       </c>
       <c r="E60" s="3">
+        <v>4435000</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" s="3">
         <v>4181000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I60" s="3">
         <v>3622000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K60" s="3">
         <v>4016000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M60" s="3">
         <v>5321000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="3">
         <v>5399000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4673000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S60" s="3">
         <v>3537000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2950,46 +3236,52 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>3199000</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>2296000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>2283000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1525000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1537000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>1103000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1496000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2997,46 +3289,52 @@
         <v>5</v>
       </c>
       <c r="E62" s="3">
+        <v>844000</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3">
         <v>559000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>556000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>551000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>1267000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>1515000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>630000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3082,8 +3380,14 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3129,8 +3433,14 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3176,8 +3486,14 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3185,46 +3501,52 @@
         <v>5</v>
       </c>
       <c r="E66" s="3">
+        <v>8478000</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="3">
         <v>7036000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I66" s="3">
         <v>6460000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K66" s="3">
         <v>6091000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>8122000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>8014000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>6796000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>5248000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3242,8 +3564,10 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3289,8 +3613,14 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3336,8 +3666,14 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3383,8 +3719,14 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3430,8 +3772,14 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3439,46 +3787,52 @@
         <v>5</v>
       </c>
       <c r="E72" s="3">
+        <v>5194000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" s="3">
         <v>5316000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I72" s="3">
         <v>6207000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K72" s="3">
         <v>5972000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>6245000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>10427000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>5484000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>3025000</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3524,8 +3878,14 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3571,8 +3931,14 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3618,8 +3984,14 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3627,46 +3999,52 @@
         <v>5</v>
       </c>
       <c r="E76" s="3">
+        <v>4105000</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" s="3">
         <v>4350000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I76" s="3">
         <v>4291000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K76" s="3">
         <v>4058000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>4554000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>4543000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>3891000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>2903000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3712,60 +4090,72 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3773,46 +4163,52 @@
         <v>5</v>
       </c>
       <c r="E81" s="3">
+        <v>467000</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3">
         <v>522000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3">
         <v>586000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K81" s="3">
         <v>809000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
         <v>458000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O81" s="3">
         <v>536000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q81" s="3">
         <v>279000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3830,8 +4226,10 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3839,46 +4237,52 @@
         <v>5</v>
       </c>
       <c r="E83" s="3">
+        <v>269000</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
         <v>140000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>117000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>116000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>101000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>124000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>272000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3924,8 +4328,14 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3971,8 +4381,14 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4018,8 +4434,14 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4065,8 +4487,14 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4112,8 +4540,14 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4121,46 +4555,52 @@
         <v>5</v>
       </c>
       <c r="E89" s="3">
+        <v>394000</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
         <v>1169000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>121000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>775000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>261000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>755000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>195000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>702000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4178,8 +4618,10 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4187,46 +4629,52 @@
         <v>5</v>
       </c>
       <c r="E91" s="3">
+        <v>-145000</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-152000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-230000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-126000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-139000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-93000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-164000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4272,8 +4720,14 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4319,8 +4773,14 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4328,46 +4788,52 @@
         <v>5</v>
       </c>
       <c r="E94" s="3">
+        <v>-300000</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
         <v>-196000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-587000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>981000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-281000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>132000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-299000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4385,8 +4851,10 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4394,46 +4862,52 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>-327000</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-145000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-300000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1111000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-248000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-92000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-167000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4479,8 +4953,14 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4526,8 +5006,14 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4573,8 +5059,14 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4582,46 +5074,52 @@
         <v>5</v>
       </c>
       <c r="E100" s="3">
+        <v>-691000</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
         <v>-283000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>414000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1736000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-121000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-613000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>239000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-573000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4629,46 +5127,52 @@
         <v>5</v>
       </c>
       <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3">
         <v>-7000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>-11000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-2000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4676,42 +5180,48 @@
         <v>5</v>
       </c>
       <c r="E102" s="3">
+        <v>-598000</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
         <v>683000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>-55000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>18000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-146000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>216000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>40000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-24000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FERGY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FERGY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="92">
   <si>
     <t>FERGY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,248 +665,261 @@
     <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10853000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5167000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10966000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5208000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11163000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5274000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10847000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5554000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10725000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5080000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10027000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5191000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9902000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4610000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>9382000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4369000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5754000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="3">
+        <v>7673000</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
         <v>7722000</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
         <v>7897000</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3">
         <v>7653000</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3">
         <v>7605000</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3">
         <v>7084000</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3">
         <v>7047000</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3">
         <v>6651000</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3">
         <v>9564000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>3180000</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3">
         <v>3244000</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
         <v>3266000</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3">
         <v>3194000</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3">
         <v>3120000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3">
         <v>2943000</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3">
         <v>2855000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3">
         <v>2731000</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3">
         <v>-3810000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -926,8 +939,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,8 +993,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1032,114 +1049,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>41000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>103000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>-3000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="3">
         <v>158000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
         <v>46000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="3">
         <v>-321000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3">
         <v>103000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="3">
         <v>99000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
         <v>60000</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
         <v>66000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3">
         <v>44000</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="3">
         <v>35000</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15" s="3">
         <v>30000</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3">
         <v>37000</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" s="3">
         <v>44000</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1156,114 +1182,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17" s="3">
+        <v>10157000</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3">
         <v>10255000</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
         <v>10479000</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3">
         <v>10135000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
         <v>10109000</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="3">
         <v>9405000</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="3">
         <v>9009000</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="3">
         <v>8797000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="3">
         <v>5430000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D18" s="3">
+        <v>696000</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3">
         <v>711000</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
         <v>684000</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3">
         <v>712000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
         <v>616000</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>622000</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>893000</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>585000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="3">
         <v>324000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1283,273 +1316,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3">
         <v>15000</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3">
         <v>10000</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3">
         <v>10000</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>5000</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>7000</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1000</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="3">
+      <c r="D21" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3">
         <v>1003000</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
         <v>854000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J21" s="3">
         <v>855000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>757000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>741000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>1040000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>871000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>533000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="3">
+      <c r="D22" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3">
         <v>77000</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
         <v>54000</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J22" s="3">
         <v>43000</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="3">
         <v>37000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N22" s="3">
         <v>29000</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P22" s="3">
         <v>33000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R22" s="3">
         <v>28000</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="3">
         <v>27000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="3">
+      <c r="D23" s="3">
+        <v>621000</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3">
         <v>640000</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
         <v>645000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3">
         <v>679000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3">
         <v>589000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N23" s="3">
         <v>598000</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P23" s="3">
         <v>867000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R23" s="3">
         <v>556000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="3">
         <v>308000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>173000</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="G24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="3">
         <v>124000</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J24" s="3">
         <v>139000</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
         <v>189000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N24" s="3">
         <v>165000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P24" s="3">
         <v>214000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="3">
         <v>156000</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="3">
         <v>107000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1601,114 +1650,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3">
         <v>467000</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3">
         <v>521000</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3">
         <v>540000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
         <v>400000</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="3">
         <v>433000</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="3">
         <v>653000</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3">
         <v>400000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="3">
         <v>201000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="3">
+      <c r="D27" s="3">
+        <v>487000</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3">
         <v>467000</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3">
         <v>521000</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3">
         <v>540000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3">
         <v>400000</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N27" s="3">
         <v>433000</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P27" s="3">
         <v>653000</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="3">
         <v>400000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="3">
         <v>209000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1760,61 +1818,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="D29" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
         <v>1000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
         <v>46000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
         <v>409000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>25000</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-117000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-121000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3">
         <v>182000</v>
       </c>
     </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1866,8 +1930,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1919,114 +1986,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="D32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3">
         <v>-15000</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3">
         <v>-10000</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3">
         <v>-10000</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>-5000</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>-7000</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>1000</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="3">
         <v>-11000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="D33" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3">
         <v>467000</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3">
         <v>522000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>586000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3">
         <v>809000</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N33" s="3">
         <v>458000</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P33" s="3">
         <v>536000</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R33" s="3">
         <v>279000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T33" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2078,119 +2154,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="D35" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3">
         <v>467000</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3">
         <v>522000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3">
         <v>586000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3">
         <v>809000</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35" s="3">
         <v>458000</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P35" s="3">
         <v>536000</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R35" s="3">
         <v>279000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T35" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2210,8 +2295,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2231,78 +2317,82 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="3">
+      <c r="D41" s="3">
+        <v>2115000</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
         <v>775000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="3">
         <v>1133000</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J41" s="3">
         <v>699000</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>833000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>2308000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>2525000</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>1089000</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>940000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3">
+      <c r="D42" s="3">
         <v>9000</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3">
         <v>9000</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3">
+        <v>9000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
@@ -2316,8 +2406,8 @@
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2337,379 +2427,403 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>3042000</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F43" s="3">
         <v>2984000</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="G43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H43" s="3">
         <v>3219000</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J43" s="3">
         <v>2982000</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="3">
         <v>3104000</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3">
         <v>2781000</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P43" s="3">
         <v>2769000</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="3">
         <v>2805000</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T43" s="3">
         <v>2207000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="3">
+      <c r="D44" s="3">
+        <v>2880000</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" s="3">
         <v>2970000</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="G44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="3">
         <v>2821000</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I44" s="3">
+      <c r="I44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="3">
         <v>2915000</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="K44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="3">
         <v>2516000</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M44" s="3">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3">
         <v>2590000</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O44" s="3">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P44" s="3">
         <v>2399000</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R44" s="3">
         <v>2723000</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S44" s="3">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T44" s="3">
         <v>2017000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="3">
+      <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F45" s="3">
         <v>22000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="G45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="I45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3">
         <v>7000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" s="3">
         <v>7000</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T45" s="3">
         <v>11000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="3">
+      <c r="D46" s="3">
+        <v>8057000</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
         <v>6760000</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="G46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H46" s="3">
         <v>7194000</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="I46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J46" s="3">
         <v>6599000</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="3">
         <v>6453000</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3">
         <v>7686000</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P46" s="3">
         <v>7700000</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R46" s="3">
         <v>6630000</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T46" s="3">
         <v>5175000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="3">
+      <c r="D47" s="3">
+        <v>393000</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
         <v>419000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H47" s="3">
         <v>411000</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J47" s="3">
         <v>411000</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="K47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="3">
         <v>403000</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M47" s="3">
+      <c r="M47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N47" s="3">
         <v>536000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
         <v>478000</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R47" s="3">
         <v>326000</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
         <v>235000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="3">
+      <c r="D48" s="3">
+        <v>2500000</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
         <v>2614000</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
         <v>1349000</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
         <v>1316000</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>1086000</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1122000</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1068000</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1867000</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1434000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E49" s="3">
+      <c r="D49" s="3">
+        <v>2242000</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3">
         <v>2142000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
         <v>2079000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3">
         <v>2072000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
         <v>1716000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>1513000</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>1653000</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>1729000</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>1104000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2761,8 +2875,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2814,61 +2931,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3">
+      <c r="D52" s="3">
+        <v>264000</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3">
         <v>648000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3">
         <v>353000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3">
         <v>353000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>491000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1819000</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1898000</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>356000</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>203000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2920,61 +3043,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="D54" s="3">
+        <v>13456000</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" s="3">
         <v>12583000</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="G54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
         <v>11386000</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J54" s="3">
         <v>10751000</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>10149000</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>12676000</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>12557000</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>10687000</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>8151000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2994,8 +3123,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3015,326 +3145,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" s="3">
+      <c r="D57" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
         <v>3120000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3">
         <v>3797000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
         <v>3034000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>3341000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>2847000</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3">
         <v>3011000</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>3190000</v>
       </c>
-      <c r="R57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3">
         <v>2634000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
+        <v>812000</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" s="3">
         <v>987000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>54000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>304000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>386000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3">
         <v>2182000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P58" s="3">
         <v>2154000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R58" s="3">
         <v>1258000</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T58" s="3">
         <v>705000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3">
+      <c r="D59" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
         <v>328000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="G59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H59" s="3">
         <v>330000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="I59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J59" s="3">
         <v>284000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>289000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>292000</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>234000</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>225000</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>198000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="3">
+      <c r="D60" s="3">
+        <v>4749000</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" s="3">
         <v>4435000</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="G60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H60" s="3">
         <v>4181000</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="I60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J60" s="3">
         <v>3622000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L60" s="3">
         <v>4016000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3">
         <v>5321000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P60" s="3">
         <v>5399000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R60" s="3">
         <v>4673000</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T60" s="3">
         <v>3537000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>3709000</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>3199000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>2296000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>2283000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1525000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1537000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1103000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>1496000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1202000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3">
+      <c r="D62" s="3">
+        <v>627000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3">
         <v>844000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>559000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>556000</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>551000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>1267000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>1515000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>630000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>511000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3386,8 +3535,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3439,8 +3591,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3492,61 +3647,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="3">
+      <c r="D66" s="3">
+        <v>9085000</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3">
         <v>8478000</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="G66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
         <v>7036000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="I66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J66" s="3">
         <v>6460000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>6091000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>8122000</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>8014000</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>6796000</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>5248000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3566,8 +3727,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3619,8 +3781,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3672,8 +3837,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3725,8 +3893,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3778,61 +3949,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="3">
+      <c r="D72" s="3">
+        <v>5553000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
         <v>5194000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="G72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H72" s="3">
         <v>5316000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J72" s="3">
         <v>6207000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>5972000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>6245000</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>10427000</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>5484000</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>3025000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3884,8 +4061,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3937,8 +4117,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3990,61 +4173,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="3">
+      <c r="D76" s="3">
+        <v>4371000</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" s="3">
         <v>4105000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="G76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="3">
         <v>4350000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="I76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J76" s="3">
         <v>4291000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>4058000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>4554000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>4543000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>3891000</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>2903000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4096,119 +4285,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="3">
+      <c r="D81" s="3">
+        <v>494000</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3">
         <v>467000</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
         <v>522000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3">
         <v>586000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3">
         <v>809000</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N81" s="3">
         <v>458000</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P81" s="3">
         <v>536000</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R81" s="3">
         <v>279000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T81" s="3">
         <v>391000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4228,61 +4426,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3">
+      <c r="D83" s="3">
+        <v>298000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3">
         <v>269000</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3">
         <v>140000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>117000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>116000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>101000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3">
         <v>124000</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>272000</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>190000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4334,8 +4536,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4387,8 +4592,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4440,8 +4648,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4493,8 +4704,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4546,61 +4760,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3">
+      <c r="D89" s="3">
+        <v>1474000</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3">
         <v>394000</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3">
         <v>1169000</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>121000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>775000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>261000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>755000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>195000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>702000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4620,61 +4840,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3">
         <v>-145000</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
         <v>-152000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-230000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-126000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-139000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-93000</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-164000</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-109000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4726,8 +4950,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4779,61 +5006,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3">
+      <c r="D94" s="3">
+        <v>-306000</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300000</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3">
         <v>-196000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-587000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>981000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-281000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>132000</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-299000</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-134000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4853,8 +5086,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4862,52 +5096,55 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-327000</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-145000</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-300000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1111000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-248000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-92000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-167000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-84000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4959,8 +5196,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5012,8 +5252,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5065,163 +5308,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3">
+      <c r="D100" s="3">
+        <v>206000</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3">
         <v>-691000</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3">
         <v>-283000</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>414000</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1736000</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-121000</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-613000</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>239000</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-573000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3">
+      <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3">
         <v>-7000</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>-2000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P101" s="3">
         <v>-11000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>-2000</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T101" s="3">
         <v>-19000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3">
+      <c r="D102" s="3">
+        <v>1379000</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3">
         <v>-598000</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3">
         <v>683000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>-55000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>18000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-146000</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>216000</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>40000</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-24000</v>
       </c>
     </row>
